--- a/INSERT DATA ASSESSMENT.xlsx
+++ b/INSERT DATA ASSESSMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AssessmentTIMW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6E0458-66B9-44BC-8D03-5DF7D9DBA749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD547777-0CE8-4B78-B2DB-8B78E5E5D406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{09FF02DA-2E3B-4368-A985-60A558ED131B}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="B1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INSERT DATA ASSESSMENT.xlsx
+++ b/INSERT DATA ASSESSMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AssessmentTIMW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD547777-0CE8-4B78-B2DB-8B78E5E5D406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9762D5BF-2B46-4A81-ADAB-9E0A30CA2C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{09FF02DA-2E3B-4368-A985-60A558ED131B}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="B1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
